--- a/data/不同方法的预测结果.xlsx
+++ b/data/不同方法的预测结果.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feijunbo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习资料\竞赛\学校基础设施预测\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472B17E4-E999-4F1B-B821-1AE6997D0223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71B9E70-47BF-4EF1-9BC5-53502C37CDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arima" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="14">
   <si>
     <t>余杭区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>中学平均人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼儿园平均教职工数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学平均教职工数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中学平均教职工数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,18 +419,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H22" sqref="C2:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="23.9296875" customWidth="1"/>
+    <col min="1" max="2" width="23.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>2021</v>
       </c>
@@ -438,11 +450,11 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
@@ -464,9 +476,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1">
@@ -488,9 +500,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1">
@@ -512,11 +524,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -538,9 +550,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -562,9 +574,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
@@ -586,11 +598,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1">
@@ -612,9 +624,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="1">
@@ -636,9 +648,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1">
@@ -660,11 +672,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
@@ -686,9 +698,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="1">
@@ -710,9 +722,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1">
@@ -734,11 +746,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1">
@@ -760,9 +772,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1">
@@ -784,9 +796,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1">
@@ -808,8 +820,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1">
@@ -831,8 +843,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="1">
@@ -854,8 +866,8 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1">
@@ -875,6 +887,75 @@
       </c>
       <c r="H19" s="1">
         <v>1027</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1">
+        <v>39</v>
+      </c>
+      <c r="F20" s="1">
+        <v>41</v>
+      </c>
+      <c r="G20" s="1">
+        <v>43</v>
+      </c>
+      <c r="H20" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
+        <v>71</v>
+      </c>
+      <c r="D21" s="1">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1">
+        <v>74</v>
+      </c>
+      <c r="F21" s="1">
+        <v>76</v>
+      </c>
+      <c r="G21" s="1">
+        <v>77</v>
+      </c>
+      <c r="H21" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1">
+        <v>99</v>
+      </c>
+      <c r="D22" s="1">
+        <v>100</v>
+      </c>
+      <c r="E22" s="1">
+        <v>100</v>
+      </c>
+      <c r="F22" s="1">
+        <v>100</v>
+      </c>
+      <c r="G22" s="1">
+        <v>100</v>
+      </c>
+      <c r="H22" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -893,18 +974,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD8F39E-52E3-4329-B668-7FD8077B61C4}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="23.9296875" customWidth="1"/>
+    <col min="1" max="2" width="23.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>2021</v>
       </c>
@@ -924,11 +1005,11 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
@@ -950,9 +1031,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1">
@@ -974,35 +1055,35 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G4" s="1">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="H4" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -1024,9 +1105,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -1048,35 +1129,35 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G7" s="1">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1">
@@ -1098,9 +1179,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="1">
@@ -1122,35 +1203,35 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H10" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
@@ -1172,9 +1253,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="1">
@@ -1196,35 +1277,35 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H13" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1">
@@ -1246,9 +1327,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1">
@@ -1270,78 +1351,78 @@
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G16" s="1">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H16" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="D17" s="1">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="E17" s="1">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="F17" s="1">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="G17" s="1">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="H17" s="1">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="1">
-        <v>1238</v>
+        <v>1118</v>
       </c>
       <c r="D18" s="1">
-        <v>1267</v>
+        <v>1125</v>
       </c>
       <c r="E18" s="1">
-        <v>1293</v>
+        <v>1142</v>
       </c>
       <c r="F18" s="1">
-        <v>1317</v>
+        <v>1173</v>
       </c>
       <c r="G18" s="1">
-        <v>1337</v>
+        <v>1227</v>
       </c>
       <c r="H18" s="1">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="3" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1">
@@ -1361,6 +1442,75 @@
       </c>
       <c r="H19" s="1">
         <v>541</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1">
+        <v>41</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44</v>
+      </c>
+      <c r="G20" s="1">
+        <v>47</v>
+      </c>
+      <c r="H20" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1">
+        <v>79</v>
+      </c>
+      <c r="E21" s="1">
+        <v>82</v>
+      </c>
+      <c r="F21" s="1">
+        <v>85</v>
+      </c>
+      <c r="G21" s="1">
+        <v>88</v>
+      </c>
+      <c r="H21" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1">
+        <v>97</v>
+      </c>
+      <c r="D22" s="1">
+        <v>96</v>
+      </c>
+      <c r="E22" s="1">
+        <v>94</v>
+      </c>
+      <c r="F22" s="1">
+        <v>92</v>
+      </c>
+      <c r="G22" s="1">
+        <v>90</v>
+      </c>
+      <c r="H22" s="1">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1378,18 +1528,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F03D94-595F-4D21-AF6E-9F1C5903F864}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="23.9296875" customWidth="1"/>
+    <col min="1" max="2" width="23.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>2021</v>
       </c>
@@ -1409,109 +1559,109 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1">
-        <v>214</v>
+        <v>145</v>
       </c>
       <c r="E2" s="1">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="F2" s="1">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="G2" s="1">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="H2" s="1">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1">
         <v>57</v>
       </c>
       <c r="E3" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1">
         <v>56</v>
       </c>
       <c r="H3" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G4" s="1">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="F5" s="1">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="G5" s="1">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="H5" s="1">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -1521,10 +1671,10 @@
         <v>28</v>
       </c>
       <c r="E6" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1">
         <v>27</v>
@@ -1533,133 +1683,133 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="D8" s="1">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="E8" s="1">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="F8" s="1">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="G8" s="1">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="H8" s="1">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="1">
         <v>40</v>
       </c>
       <c r="D9" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1">
         <v>39</v>
       </c>
       <c r="G9" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="H11" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="1">
@@ -1681,171 +1831,240 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>510</v>
+        <v>350</v>
       </c>
       <c r="D14" s="1">
-        <v>514</v>
+        <v>349</v>
       </c>
       <c r="E14" s="1">
-        <v>518</v>
+        <v>348</v>
       </c>
       <c r="F14" s="1">
-        <v>522</v>
+        <v>348</v>
       </c>
       <c r="G14" s="1">
-        <v>526</v>
+        <v>347</v>
       </c>
       <c r="H14" s="1">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1">
         <v>64</v>
       </c>
       <c r="G15" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E16" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G16" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H16" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1">
-        <v>120</v>
+        <v>265</v>
       </c>
       <c r="D17" s="1">
-        <v>120</v>
+        <v>273</v>
       </c>
       <c r="E17" s="1">
-        <v>120</v>
+        <v>281</v>
       </c>
       <c r="F17" s="1">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="G17" s="1">
-        <v>120</v>
+        <v>296</v>
       </c>
       <c r="H17" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="1">
-        <v>187</v>
+        <v>1198</v>
       </c>
       <c r="D18" s="1">
-        <v>187</v>
+        <v>1228</v>
       </c>
       <c r="E18" s="1">
-        <v>187</v>
+        <v>1258</v>
       </c>
       <c r="F18" s="1">
-        <v>188</v>
+        <v>1288</v>
       </c>
       <c r="G18" s="1">
-        <v>188</v>
+        <v>1319</v>
       </c>
       <c r="H18" s="1">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="3" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1">
-        <v>405</v>
+        <v>1066</v>
       </c>
       <c r="D19" s="1">
-        <v>407</v>
+        <v>1070</v>
       </c>
       <c r="E19" s="1">
-        <v>408</v>
+        <v>1074</v>
       </c>
       <c r="F19" s="1">
-        <v>410</v>
+        <v>1078</v>
       </c>
       <c r="G19" s="1">
-        <v>411</v>
+        <v>1082</v>
       </c>
       <c r="H19" s="1">
-        <v>413</v>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1">
+        <v>34</v>
+      </c>
+      <c r="G20" s="1">
+        <v>35</v>
+      </c>
+      <c r="H20" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1">
+        <v>80</v>
+      </c>
+      <c r="E21" s="1">
+        <v>83</v>
+      </c>
+      <c r="F21" s="1">
+        <v>86</v>
+      </c>
+      <c r="G21" s="1">
+        <v>88</v>
+      </c>
+      <c r="H21" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1">
+        <v>106</v>
+      </c>
+      <c r="D22" s="1">
+        <v>108</v>
+      </c>
+      <c r="E22" s="1">
+        <v>111</v>
+      </c>
+      <c r="F22" s="1">
+        <v>113</v>
+      </c>
+      <c r="G22" s="1">
+        <v>115</v>
+      </c>
+      <c r="H22" s="1">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1863,18 +2082,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F0B9BC-316E-42C0-87E3-BAF51A42F8D0}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="23.9296875" customWidth="1"/>
+    <col min="1" max="2" width="23.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>2021</v>
       </c>
@@ -1894,35 +2113,35 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H2" s="1">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1">
@@ -1944,9 +2163,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1">
@@ -1968,11 +2187,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -1994,9 +2213,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -2018,9 +2237,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
@@ -2042,35 +2261,35 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H8" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="1">
@@ -2092,9 +2311,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1">
@@ -2116,11 +2335,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
@@ -2142,9 +2361,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="1">
@@ -2166,9 +2385,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1">
@@ -2190,11 +2409,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1">
@@ -2216,9 +2435,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1">
@@ -2240,9 +2459,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1">
@@ -2264,54 +2483,54 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D17" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E17" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F17" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G17" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H17" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="1">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="D18" s="1">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="E18" s="1">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="F18" s="1">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="G18" s="1">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="H18" s="1">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="3" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1">
@@ -2331,6 +2550,75 @@
       </c>
       <c r="H19" s="1">
         <v>1030</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1">
+        <v>33</v>
+      </c>
+      <c r="E20" s="1">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1">
+        <v>33</v>
+      </c>
+      <c r="G20" s="1">
+        <v>33</v>
+      </c>
+      <c r="H20" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
+        <v>69</v>
+      </c>
+      <c r="D21" s="1">
+        <v>69</v>
+      </c>
+      <c r="E21" s="1">
+        <v>69</v>
+      </c>
+      <c r="F21" s="1">
+        <v>69</v>
+      </c>
+      <c r="G21" s="1">
+        <v>69</v>
+      </c>
+      <c r="H21" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1">
+        <v>99</v>
+      </c>
+      <c r="D22" s="1">
+        <v>99</v>
+      </c>
+      <c r="E22" s="1">
+        <v>99</v>
+      </c>
+      <c r="F22" s="1">
+        <v>99</v>
+      </c>
+      <c r="G22" s="1">
+        <v>99</v>
+      </c>
+      <c r="H22" s="1">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2348,18 +2636,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E9EDDA-CC33-417F-B4E5-3A321B020C22}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="23.9296875" customWidth="1"/>
+    <col min="1" max="2" width="23.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>2021</v>
       </c>
@@ -2379,35 +2667,35 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H2" s="1">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1">
@@ -2429,9 +2717,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1">
@@ -2453,11 +2741,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -2479,9 +2767,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -2503,9 +2791,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
@@ -2527,35 +2815,35 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H8" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="1">
@@ -2577,9 +2865,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1">
@@ -2601,11 +2889,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
@@ -2627,9 +2915,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="1">
@@ -2651,9 +2939,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1">
@@ -2675,11 +2963,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="1">
@@ -2701,9 +2989,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1">
@@ -2725,9 +3013,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1">
@@ -2749,54 +3037,54 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D17" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E17" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F17" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G17" s="1">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H17" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="1">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="D18" s="1">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="E18" s="1">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="F18" s="1">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="G18" s="1">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="H18" s="1">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="3" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1">
@@ -2816,6 +3104,75 @@
       </c>
       <c r="H19" s="1">
         <v>1030</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1">
+        <v>29</v>
+      </c>
+      <c r="G20" s="1">
+        <v>29</v>
+      </c>
+      <c r="H20" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
+        <v>66</v>
+      </c>
+      <c r="D21" s="1">
+        <v>66</v>
+      </c>
+      <c r="E21" s="1">
+        <v>66</v>
+      </c>
+      <c r="F21" s="1">
+        <v>66</v>
+      </c>
+      <c r="G21" s="1">
+        <v>66</v>
+      </c>
+      <c r="H21" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1">
+        <v>98</v>
+      </c>
+      <c r="D22" s="1">
+        <v>98</v>
+      </c>
+      <c r="E22" s="1">
+        <v>98</v>
+      </c>
+      <c r="F22" s="1">
+        <v>98</v>
+      </c>
+      <c r="G22" s="1">
+        <v>98</v>
+      </c>
+      <c r="H22" s="1">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2833,18 +3190,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DD0FDB-FCA0-4C57-8119-A02950EDD724}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:H19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="23.9296875" customWidth="1"/>
+    <col min="1" max="2" width="23.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>2021</v>
       </c>
@@ -2864,109 +3221,109 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E2" s="1">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F2" s="1">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G2" s="1">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H2" s="1">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F5" s="1">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G5" s="1">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H5" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -2988,59 +3345,59 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D8" s="1">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F8" s="1">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G8" s="1">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H8" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="1">
@@ -3062,59 +3419,59 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="1">
@@ -3136,171 +3493,240 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>368</v>
+      </c>
+      <c r="D14" s="1">
+        <v>368</v>
+      </c>
+      <c r="E14" s="1">
+        <v>368</v>
+      </c>
+      <c r="F14" s="1">
+        <v>368</v>
+      </c>
+      <c r="G14" s="1">
+        <v>368</v>
+      </c>
+      <c r="H14" s="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1">
+        <v>68</v>
+      </c>
+      <c r="E15" s="1">
+        <v>68</v>
+      </c>
+      <c r="F15" s="1">
+        <v>68</v>
+      </c>
+      <c r="G15" s="1">
+        <v>68</v>
+      </c>
+      <c r="H15" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1">
+        <v>40</v>
+      </c>
+      <c r="G16" s="1">
+        <v>40</v>
+      </c>
+      <c r="H16" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>245</v>
+      </c>
+      <c r="D17" s="1">
+        <v>245</v>
+      </c>
+      <c r="E17" s="1">
+        <v>245</v>
+      </c>
+      <c r="F17" s="1">
+        <v>245</v>
+      </c>
+      <c r="G17" s="1">
+        <v>245</v>
+      </c>
+      <c r="H17" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1129</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1129</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1129</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1129</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1129</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1024</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1024</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1024</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1024</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1024</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1">
         <v>25</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D20" s="1">
         <v>25</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E20" s="1">
         <v>25</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F20" s="1">
         <v>25</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G20" s="1">
         <v>25</v>
       </c>
-      <c r="H13" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>350</v>
-      </c>
-      <c r="D14" s="1">
-        <v>350</v>
-      </c>
-      <c r="E14" s="1">
-        <v>350</v>
-      </c>
-      <c r="F14" s="1">
-        <v>350</v>
-      </c>
-      <c r="G14" s="1">
-        <v>350</v>
-      </c>
-      <c r="H14" s="1">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>67</v>
-      </c>
-      <c r="D15" s="1">
-        <v>67</v>
-      </c>
-      <c r="E15" s="1">
-        <v>67</v>
-      </c>
-      <c r="F15" s="1">
-        <v>67</v>
-      </c>
-      <c r="G15" s="1">
-        <v>67</v>
-      </c>
-      <c r="H15" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1">
-        <v>39</v>
-      </c>
-      <c r="D16" s="1">
-        <v>39</v>
-      </c>
-      <c r="E16" s="1">
-        <v>39</v>
-      </c>
-      <c r="F16" s="1">
-        <v>39</v>
-      </c>
-      <c r="G16" s="1">
-        <v>39</v>
-      </c>
-      <c r="H16" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1">
-        <v>247</v>
-      </c>
-      <c r="D17" s="1">
-        <v>247</v>
-      </c>
-      <c r="E17" s="1">
-        <v>247</v>
-      </c>
-      <c r="F17" s="1">
-        <v>247</v>
-      </c>
-      <c r="G17" s="1">
-        <v>247</v>
-      </c>
-      <c r="H17" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1126</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1126</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1126</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1126</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1126</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1030</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1030</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1030</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1030</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1030</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1030</v>
+      <c r="H20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1">
+        <v>46</v>
+      </c>
+      <c r="E21" s="1">
+        <v>46</v>
+      </c>
+      <c r="F21" s="1">
+        <v>46</v>
+      </c>
+      <c r="G21" s="1">
+        <v>46</v>
+      </c>
+      <c r="H21" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1">
+        <v>83</v>
+      </c>
+      <c r="D22" s="1">
+        <v>83</v>
+      </c>
+      <c r="E22" s="1">
+        <v>83</v>
+      </c>
+      <c r="F22" s="1">
+        <v>83</v>
+      </c>
+      <c r="G22" s="1">
+        <v>83</v>
+      </c>
+      <c r="H22" s="1">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3313,5 +3739,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>